--- a/pred_ohlcv/54_21/2020-01-20 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ZIL ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>385244.5094116277</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>383202.0918116276</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>421923.5935116276</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>421923.5935116276</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>418406.2124116277</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>419595.1134116277</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>447244.7269918257</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>451860.7269918257</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>431907.0962918257</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>431907.0962918257</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>394907.0962918257</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>394907.0962918257</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>394907.0962918257</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>394907.0962918257</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>375907.0962918257</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>362626.6673918257</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>368189.3348918257</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>331181.1267918257</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>336171.1267918257</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>336422.8237918257</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>336422.8237918257</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>335540.8994918257</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>502040.8994918257</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>498729.3135918257</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>499332.7222918257</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>570351.0072918257</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>545279.1687918258</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>530236.2524918257</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>533798.1551918257</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>531210.2694918257</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-82813.28550817433</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2187001.496590298</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ZIL ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>347452.8327116276</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>265452.8327116276</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>265452.8327116276</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>265452.8327116276</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -964,7 +964,7 @@
         <v>436089.4955116276</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>385244.5094116277</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>383610.0653116276</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>384089.0918116276</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>383202.0918116276</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>383202.0918116276</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>386726.2418116276</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>380177.4427116276</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>426492.6392116277</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>421923.5935116276</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>421923.5935116276</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>447244.7269918257</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>431907.0962918257</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>431907.0962918257</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>394907.0962918257</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>375907.0962918257</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>376169.3855918257</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>367856.6673918257</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>336422.8237918257</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>336422.8237918257</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>498729.3135918257</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>570351.0072918257</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>545279.1687918258</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>530236.2524918257</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
